--- a/Modelagens/Roman_modelo_fisico.xlsx
+++ b/Modelagens/Roman_modelo_fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a9320310dbb1e3c/Área de Trabalho/Roman/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a9320310dbb1e3c/Área de Trabalho/Roman/Modelagens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4150717C-DB8F-4257-A5F1-D259381EF5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{4150717C-DB8F-4257-A5F1-D259381EF5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4673CD36-F7A2-4239-95A5-FBA8E12735EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA7F7863-E4A3-44FC-98B3-76820BFBAE70}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -63,30 +63,9 @@
     <t>Professor</t>
   </si>
   <si>
-    <t>IdProfessor</t>
-  </si>
-  <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>Professsor@email.com</t>
-  </si>
-  <si>
-    <t>Adm@adm.com</t>
-  </si>
-  <si>
-    <t>IdAdm</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Aparecido</t>
   </si>
   <si>
-    <t>Joao</t>
-  </si>
-  <si>
     <t>Joyce</t>
   </si>
   <si>
@@ -96,9 +75,6 @@
     <t>Yuri</t>
   </si>
   <si>
-    <t>Saulo</t>
-  </si>
-  <si>
     <t>Equipe</t>
   </si>
   <si>
@@ -108,9 +84,6 @@
     <t>NomeEquipe</t>
   </si>
   <si>
-    <t>SENAI</t>
-  </si>
-  <si>
     <t>Projeto</t>
   </si>
   <si>
@@ -132,9 +105,6 @@
     <t>Descricao</t>
   </si>
   <si>
-    <t>Gestao</t>
-  </si>
-  <si>
     <t>Controle de Estoque</t>
   </si>
   <si>
@@ -147,7 +117,55 @@
     <t>Programa para gerir um projeto</t>
   </si>
   <si>
-    <t>nada</t>
+    <t>saulo</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Aparecido@email.com</t>
+  </si>
+  <si>
+    <t>Carlos@email.com</t>
+  </si>
+  <si>
+    <t>Joao@email.com</t>
+  </si>
+  <si>
+    <t>Joyce@email.com</t>
+  </si>
+  <si>
+    <t>Yuri@email.com</t>
+  </si>
+  <si>
+    <t>Caique</t>
+  </si>
+  <si>
+    <t>Caique@adm.com</t>
+  </si>
+  <si>
+    <t>Saulo@adm.com</t>
+  </si>
+  <si>
+    <t>NomeUsuario</t>
+  </si>
+  <si>
+    <t>Gestão</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Redes</t>
+  </si>
+  <si>
+    <t>Multimídia</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Administrador</t>
   </si>
 </sst>
 </file>
@@ -179,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,42 +242,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -296,13 +278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,31 +382,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,45 +451,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,114 +460,90 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -905,327 +859,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F00378-D5EF-45A1-B44B-85D43C815386}">
-  <dimension ref="A2:O17"/>
+  <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="31"/>
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="J2" s="50" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="50">
+        <v>1</v>
+      </c>
+      <c r="F4" s="51">
+        <v>1</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="52">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>1</v>
+      </c>
+      <c r="B11" s="35">
+        <v>3</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>2</v>
+      </c>
+      <c r="B12" s="35">
+        <v>4</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>3</v>
+      </c>
+      <c r="B13" s="35">
+        <v>5</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="I15" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="32"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1</v>
+      </c>
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="75" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="20">
+        <v>1</v>
+      </c>
+      <c r="N17" s="33"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="N18" s="33"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="74" t="s">
+      <c r="C19" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20">
-        <v>1</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="22">
-        <v>1234</v>
-      </c>
-      <c r="J4" s="45">
-        <v>1</v>
-      </c>
-      <c r="K4" s="46">
-        <v>1</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="E5" s="23">
-        <v>2</v>
-      </c>
-      <c r="F5" s="24">
-        <v>2</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="26">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J8" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J9" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="E10" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="J10" s="45">
-        <v>1</v>
-      </c>
-      <c r="K10" s="46">
-        <v>1</v>
-      </c>
-      <c r="L10" s="46">
-        <v>1</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>1</v>
-      </c>
-      <c r="B12" s="31">
-        <v>2</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="42">
-        <v>1</v>
-      </c>
-      <c r="F12" s="43">
-        <v>1</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>2</v>
-      </c>
-      <c r="B13" s="31">
-        <v>2</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>3</v>
-      </c>
-      <c r="B14" s="31">
-        <v>2</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>4</v>
-      </c>
-      <c r="B15" s="31">
-        <v>2</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="60"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
-        <v>5</v>
-      </c>
-      <c r="B16" s="34">
-        <v>2</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="61">
-        <v>1</v>
-      </c>
-      <c r="K16" s="62">
-        <v>1</v>
-      </c>
-      <c r="L16" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="63"/>
-      <c r="O16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="J17" s="64">
-        <v>2</v>
-      </c>
-      <c r="K17" s="65">
-        <v>1</v>
-      </c>
-      <c r="L17" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="66"/>
-      <c r="O17" t="s">
-        <v>37</v>
-      </c>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="A2:C2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{8A06B925-3473-4BF8-9E8A-61749D497FB6}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{EECEC302-7364-455C-A30B-DF89A9EBED20}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{EECEC302-7364-455C-A30B-DF89A9EBED20}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{08B063D6-953C-422C-A889-DDC496B3EFFE}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{318D3C8B-7910-4823-9D7B-1A7C14679D95}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{A19C6025-1B49-42C0-9BD1-6FEE0AFD22DA}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{E21C1D27-65F5-4AFF-BCE5-986E467DFECB}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{AE3ABE63-2670-450B-9BB0-20E824B54D00}"/>
+    <hyperlink ref="H6" r:id="rId7" xr:uid="{BBFC3AEC-F154-4119-8D13-2656AE0C80B1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>